--- a/biology/Botanique/Stictocardia/Stictocardia.xlsx
+++ b/biology/Botanique/Stictocardia/Stictocardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stictocardia est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (6 mars 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (6 mars 2019) :
 Stictocardia beraviensis (Vatke) Hall. fil.
 Stictocardia cordatosepala Ooststr.
 Stictocardia discolor Ooststr.
@@ -527,11 +541,11 @@
 Stictocardia queenslandica (Domin) R. W. Johnson
 Stictocardia sivarajanii S. D. Biju, P. Pushpangadan &amp; P. Mathew
 Stictocardia tiliifolia (Desr.) Hall. fil.
-Selon GRIN            (6 mars 2019)[3] :
+Selon GRIN            (6 mars 2019) :
 Stictocardia beraviensis (Vatke) Hallier f.
 Stictocardia macalusoi (Mattei) Verdc.
 Stictocardia tiliifolia (Desr.) Hallier f.
-Selon World Checklist of Selected Plant Families (WCSP)  (6 mars 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 mars 2019) :
 Stictocardia beraviensis (Vatke) Hallier f. (1893)
 Stictocardia cordatosepala Ooststr. (1943)
 Stictocardia discolor Ooststr. (1943)
@@ -548,7 +562,7 @@
 Stictocardia tiliifolia (Desr.) Hallier f. (1893)
 sous-espèce Stictocardia tiliifolia subsp. marquesensis Staples &amp; Butaud (2016)
 sous-espèce Stictocardia tiliifolia subsp. tiliifolia
-Selon The Plant List            (6 mars 2019)[5] :
+Selon The Plant List            (6 mars 2019) :
 Stictocardia beraviensis (Vatke) Hallier f.
 Stictocardia incomta (Hallier f.) Hallier f.
 Stictocardia laxiflora (Baker) Hallier f.
@@ -556,7 +570,7 @@
 Stictocardia macalusoi (Mattei) Verdc.
 Stictocardia mojangensis (Vatke) D.F. Austin &amp; E. Eich
 Stictocardia tiliifolia (Desr.) Hallier f.
-Selon Tropicos                                           (6 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Stictocardia beraviensis (Vatke) Hallier f.
 Stictocardia campanulata (L.) Merr.
 Stictocardia incompta (Hallier f.) Hallier f.
